--- a/LabVIEW/Termo/Расчет T.xlsx
+++ b/LabVIEW/Termo/Расчет T.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\Projects\LV prj\Termo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MEGAdrive\ponkin-prjs\LabVIEW\Termo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1366CABC-5206-44AD-8AA8-B3ED02F13376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -116,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +561,7 @@
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -583,17 +591,17 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>16.924520218221001</v>
+        <v>3.0624488875910099</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3">
-        <v>962.7</v>
+        <v>745</v>
       </c>
       <c r="J3">
         <f>E3/F3</f>
-        <v>1.0387451958034695</v>
+        <v>1.3422818791946309</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>19</v>
@@ -604,18 +612,18 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>-209.88193494221099</v>
+        <v>-30.358634104486502</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4">
         <f>C3+C4*J3</f>
-        <v>-201.08933138893698</v>
+        <v>-37.687395547961344</v>
       </c>
       <c r="L4" s="2">
         <f>H4+H5+H6+H7+H8+H9</f>
-        <v>290.23615963540215</v>
+        <v>609.62222960623819</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -623,14 +631,14 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1166.48439995385</v>
+        <v>241.908977336715</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5">
         <f>C5*(J3)^2</f>
-        <v>1258.6268478568138</v>
+        <v>435.85239824641235</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -638,14 +646,14 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-3075.2815227992801</v>
+        <v>-649.75628893822397</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6">
         <f>C6*J3^3</f>
-        <v>-3446.7672948792283</v>
+        <v>-1571.3816360245555</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -653,14 +661,14 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4388.5694366171901</v>
+        <v>955.30757342092602</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7">
         <f>C7*J3^4</f>
-        <v>5109.272744973392</v>
+        <v>3101.1168427573793</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -668,14 +676,14 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-2910.9508342221302</v>
+        <v>-485.42825749609602</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8">
         <f>C8*J3^5</f>
-        <v>-3520.3027201668956</v>
+        <v>-2115.1622647876338</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -683,14 +691,14 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>868.10023390594802</v>
+        <v>136.248866791371</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
       <c r="H9">
         <f>C9*J3^6</f>
-        <v>1090.4959132402573</v>
+        <v>796.88428496259723</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
